--- a/Datasets/ExperimentFourSummaryData.xlsx
+++ b/Datasets/ExperimentFourSummaryData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vuw-my.sharepoint.com/personal/fordefr_staff_vuw_ac_nz1/Documents/CBNS thesis research/Quarto manuscript/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{3BE21B43-9635-47A2-A3C4-38E9E300DD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1E4B9B2-959B-4CD3-BD44-3933EBA2EC48}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{3BE21B43-9635-47A2-A3C4-38E9E300DD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9060D7B0-10FB-4312-B68C-E8A90E134ECD}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2019EE2-1F6B-48BA-AA9E-14EB0692F350}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Data for analysis" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,12 +53,6 @@
     <t>active_arm</t>
   </si>
   <si>
-    <t>baseline_active_arm_%</t>
-  </si>
-  <si>
-    <t>endpoint_active_arm_%</t>
-  </si>
-  <si>
     <t>Treatment</t>
   </si>
   <si>
@@ -81,6 +75,12 @@
   </si>
   <si>
     <t>Conditioning_day5</t>
+  </si>
+  <si>
+    <t>baseline_active_arm_entries</t>
+  </si>
+  <si>
+    <t>endpoint_active_arm_entries</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -499,31 +499,31 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" t="s">
         <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -569,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -607,7 +607,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -645,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -683,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -721,7 +721,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -759,7 +759,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -797,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -835,7 +835,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -873,7 +873,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -911,7 +911,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -949,7 +949,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -987,7 +987,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -1025,7 +1025,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -1063,7 +1063,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -1101,7 +1101,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -1139,7 +1139,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -1177,7 +1177,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -1215,7 +1215,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>3</v>
@@ -1253,7 +1253,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -1291,7 +1291,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>3</v>
@@ -1329,7 +1329,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -1405,7 +1405,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -1443,7 +1443,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -1481,7 +1481,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -1519,7 +1519,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -1557,7 +1557,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -1595,7 +1595,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -1633,7 +1633,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -1671,7 +1671,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -1709,7 +1709,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -1747,7 +1747,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -1785,7 +1785,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -1823,7 +1823,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -1861,7 +1861,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -1899,7 +1899,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -1937,7 +1937,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -1975,7 +1975,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -2013,7 +2013,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -2051,7 +2051,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -2089,7 +2089,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
